--- a/va_facility_data_2025-02-20/Fort Johnson VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Fort%20Johnson%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Fort Johnson VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Fort%20Johnson%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rbcd401a57a1142708509fbc79db324da"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R200c8ce3adeb45698c3622d6b9ce18d6"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4512b17752a34acd8f6b1a9757f0e2be"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R139e15bdc0cc47778b5c2dfb37addfaf"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R966617ea4c454e709439747cbd11900e"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb81f62b30d394bb99ed51ea5ec7c92d8"/>
   </x:sheets>
 </x:workbook>
 </file>
